--- a/Angriff aus Feldzuspiel.xlsx
+++ b/Angriff aus Feldzuspiel.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,21 @@
           <t>Farbe</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Erklärung</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Hilfsmittel</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,11 +487,28 @@
           <t>#f27979</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Spielform</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2er-King-of-the-Court
+- ohne Springen
+- mit Springen</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6 Bälle</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fänger</t>
+          <t>Feldzuspiel zu Fänger</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -488,24 +520,59 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>#79f29c</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Übungsform</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Auf beiden Feldhälften:
+- Feldzuspiel nach Eigenanwurf von I und V
+- Fänger auf II und IV
+- Feldzuspieler wird zu Fänger etc.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8 Bälle</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Angriff</t>
+          <t>Feldzuspiel und Angriff</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>#bf79f2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Übungsform</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>- Einschlagen von II bzw. IV (mit Warteposition | 10 Minuten IV dann II)
+- aus Feldzuspiel (Eigenanwurf)
+- Blockspieler und Abwehrspieler (mit Warteposition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6 Bälle</t>
         </is>
       </c>
     </row>
@@ -516,7 +583,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
         <v>15</v>
@@ -524,17 +591,33 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>#f2e379</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Spielform</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dreierriegel King-of-the-Court
+- nur mit Rückraumangriff</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12 Bälle</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vorne King</t>
+          <t>Vorderzone King</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C6" t="n">
         <v>15</v>
@@ -542,26 +625,86 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>#79ddf2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Spielform</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dreierriegel King-of-the-Court (wie vorherige)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12 Bälle</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6 vs 6 + Einwürfen</t>
+          <t>6 vs 6 + Einwürfe</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>#f279ba</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Spielform</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6 vs 6 Aufschlag -&gt; Ball ausspielen
+- 3-4 Einwürfe des Trainers darauf direktes Feldzuspiel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12 Bälle</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cool Down</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>115</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>#97f279</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Übungsform</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ruhiges Auslaufen in Socken</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
